--- a/MonomerToHexCodes.xlsx
+++ b/MonomerToHexCodes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Monomer</t>
   </si>
@@ -28,25 +28,73 @@
     <t xml:space="preserve">Mass</t>
   </si>
   <si>
-    <t xml:space="preserve">NBDMass</t>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
   </si>
   <si>
+    <t xml:space="preserve">abu</t>
+  </si>
+  <si>
     <t xml:space="preserve">b</t>
   </si>
   <si>
+    <t xml:space="preserve">d2abu</t>
+  </si>
+  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
+    <t xml:space="preserve">ala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d</t>
   </si>
   <si>
+    <t xml:space="preserve">d2ala</t>
+  </si>
+  <si>
     <t xml:space="preserve">e</t>
   </si>
   <si>
+    <t xml:space="preserve">cha</t>
+  </si>
+  <si>
     <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2cha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2hophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2leu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2phe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2ser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d2tyr</t>
   </si>
 </sst>
 </file>
@@ -151,17 +199,17 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -172,180 +220,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>103.06</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>239.08</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>129.08</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>265.1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>191.09</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>327.12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>143.09</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>279.28</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>177.08</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>313.3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>179.09</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>315.31</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>117.08</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>253.1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>131.09</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>267.11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>211.04</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>347.06</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>183.13</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>319.15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>193.11</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>329.13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>101.05</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>237.07</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>185.14</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>321.16</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>115.06</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>251.23</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>213.05</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>349.08</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>145.11</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>281.13</v>
+        <v>209</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
